--- a/idade_Germans Seio frontal.xlsx
+++ b/idade_Germans Seio frontal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive - UNIVERSIDADE TUIUTI DO PARANA\Tuiuti\NIAS\Seio Frontal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104435CE-AF40-41F8-82DA-7A8C47C7819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6921D6-FCF7-4E57-A0B1-067D86F0FF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEC2B8EA-F214-42F5-B6AE-1AFA303E0411}"/>
   </bookViews>
@@ -36,13 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -87,11 +94,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3385ED8E-87DB-4660-9F82-C50146EE77F9}">
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,27 +450,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>13.75</v>
-      </c>
-      <c r="B1" s="4">
-        <v>231.96100000000001</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="B2" s="4">
-        <v>145.346</v>
+        <v>231.96100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>9.9166666666666661</v>
+        <v>13.5</v>
       </c>
       <c r="B3" s="4">
-        <v>98.423000000000002</v>
+        <v>145.346</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,31 +478,31 @@
         <v>9.9166666666666661</v>
       </c>
       <c r="B4" s="4">
-        <v>198.988</v>
+        <v>98.423000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="B5" s="4">
+        <v>198.988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>22.75</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>197.821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>10.25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>227.87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>14.583333333333334</v>
+        <v>10.25</v>
       </c>
       <c r="B7" s="4">
-        <v>311.69600000000003</v>
+        <v>227.87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +510,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="B8" s="4">
-        <v>140.01499999999999</v>
+        <v>311.69600000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,519 +518,519 @@
         <v>14.583333333333334</v>
       </c>
       <c r="B9" s="4">
-        <v>172.28399999999999</v>
+        <v>140.01499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>10.833333333333334</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="B10" s="4">
-        <v>183.803</v>
+        <v>172.28399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10.666666666666666</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="B11" s="4">
-        <v>192.52099999999999</v>
+        <v>183.803</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>12.333333333333334</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="B12" s="4">
-        <v>109.129</v>
+        <v>192.52099999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10.75</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="B13" s="4">
-        <v>157.34899999999999</v>
+        <v>109.129</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>33.916666666666664</v>
+        <v>10.75</v>
       </c>
       <c r="B14" s="4">
-        <v>163.60900000000001</v>
+        <v>157.34899999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12.833333333333334</v>
+        <v>33.916666666666664</v>
       </c>
       <c r="B15" s="4">
-        <v>90.944999999999993</v>
+        <v>163.60900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15.666666666666666</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="B16" s="4">
-        <v>289.95600000000002</v>
+        <v>90.944999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14.5</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="B17" s="4">
-        <v>58.399000000000001</v>
+        <v>289.95600000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>12.333333333333334</v>
+        <v>14.5</v>
       </c>
       <c r="B18" s="4">
-        <v>273.24400000000003</v>
+        <v>58.399000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>16.583333333333332</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="B19" s="4">
-        <v>310.13</v>
+        <v>273.24400000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>12.416666666666666</v>
+        <v>16.583333333333332</v>
       </c>
       <c r="B20" s="4">
-        <v>166.81200000000001</v>
+        <v>310.13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>10.083333333333334</v>
+        <v>12.416666666666666</v>
       </c>
       <c r="B21" s="4">
-        <v>234.649</v>
+        <v>166.81200000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="B22" s="4">
-        <v>75.076999999999998</v>
+        <v>234.649</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4">
-        <v>87.784999999999997</v>
+        <v>75.076999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>9.1666666666666661</v>
+        <v>17.75</v>
       </c>
       <c r="B24" s="4">
-        <v>127.497</v>
+        <v>87.784999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>13.25</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="B25" s="4">
-        <v>114.747</v>
+        <v>127.497</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>8.4166666666666661</v>
+        <v>13.25</v>
       </c>
       <c r="B26" s="4">
-        <v>100.52500000000001</v>
+        <v>114.747</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>12.166666666666666</v>
+        <v>8.4166666666666661</v>
       </c>
       <c r="B27" s="4">
-        <v>67.557000000000002</v>
+        <v>100.52500000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>16.416666666666668</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="B28" s="4">
-        <v>254.81299999999999</v>
+        <v>67.557000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>25.416666666666668</v>
+        <v>16.416666666666668</v>
       </c>
       <c r="B29" s="4">
-        <v>275.08300000000003</v>
+        <v>254.81299999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>11.166666666666666</v>
+        <v>25.416666666666668</v>
       </c>
       <c r="B30" s="4">
-        <v>263.96199999999999</v>
+        <v>275.08300000000003</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>8.1666666666666661</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="B31" s="4">
-        <v>81.929000000000002</v>
+        <v>263.96199999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>10.75</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="B32" s="4">
-        <v>152.91499999999999</v>
+        <v>81.929000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>13.916666666666666</v>
+        <v>10.75</v>
       </c>
       <c r="B33" s="4">
-        <v>99.561999999999998</v>
+        <v>152.91499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="B34" s="4">
-        <v>79.744</v>
+        <v>99.561999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>17.25</v>
+        <v>13</v>
       </c>
       <c r="B35" s="4">
-        <v>211.244</v>
+        <v>79.744</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>10.583333333333334</v>
+        <v>17.25</v>
       </c>
       <c r="B36" s="4">
-        <v>109.18600000000001</v>
+        <v>211.244</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>10.166666666666666</v>
+        <v>10.583333333333334</v>
       </c>
       <c r="B37" s="4">
-        <v>122.032</v>
+        <v>109.18600000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>15.333333333333334</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="B38" s="4">
-        <v>101.25700000000001</v>
+        <v>122.032</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>9.6666666666666661</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="B39" s="4">
-        <v>197.07400000000001</v>
+        <v>101.25700000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>10.083333333333334</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="B40" s="4">
-        <v>145.05699999999999</v>
+        <v>197.07400000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>10.75</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="B41" s="4">
-        <v>98.570999999999998</v>
+        <v>145.05699999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>10.083333333333334</v>
+        <v>10.75</v>
       </c>
       <c r="B42" s="4">
-        <v>78.850999999999999</v>
+        <v>98.570999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>9.6666666666666661</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="B43" s="4">
-        <v>151.49700000000001</v>
+        <v>78.850999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>11.916666666666666</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="B44" s="4">
-        <v>123.85</v>
+        <v>151.49700000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>10.083333333333334</v>
+        <v>11.916666666666666</v>
       </c>
       <c r="B45" s="4">
-        <v>146.71799999999999</v>
+        <v>123.85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>8.9166666666666661</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="B46" s="4">
-        <v>86.337999999999994</v>
+        <v>146.71799999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>9.6666666666666661</v>
+        <v>8.9166666666666661</v>
       </c>
       <c r="B47" s="4">
-        <v>76.67</v>
+        <v>86.337999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>15.916666666666666</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="B48" s="4">
-        <v>181.15799999999999</v>
+        <v>76.67</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>9.8333333333333339</v>
+        <v>15.916666666666666</v>
       </c>
       <c r="B49" s="4">
-        <v>84.733999999999995</v>
+        <v>181.15799999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>14.333333333333334</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="B50" s="4">
-        <v>122.16</v>
+        <v>84.733999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>14.666666666666666</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="B51" s="4">
-        <v>165.31100000000001</v>
+        <v>122.16</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>19.666666666666668</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="B52" s="4">
-        <v>132.221</v>
+        <v>165.31100000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>11.416666666666666</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="B53" s="4">
-        <v>95.745999999999995</v>
+        <v>132.221</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>12.5</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="B54" s="4">
-        <v>167.45099999999999</v>
+        <v>95.745999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="B55" s="4">
-        <v>134.816</v>
+        <v>167.45099999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B56" s="4">
-        <v>342.76100000000002</v>
+        <v>134.816</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>12.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4">
-        <v>247.482</v>
+        <v>342.76100000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>10.833333333333334</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="B58" s="4">
-        <v>52.320999999999998</v>
+        <v>247.482</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>15.25</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="B59" s="4">
-        <v>285.95600000000002</v>
+        <v>52.320999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>14.5</v>
+        <v>15.25</v>
       </c>
       <c r="B60" s="4">
-        <v>86.094999999999999</v>
+        <v>285.95600000000002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>14.166666666666666</v>
+        <v>14.5</v>
       </c>
       <c r="B61" s="4">
-        <v>164.18199999999999</v>
+        <v>86.094999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>16.166666666666668</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="B62" s="4">
-        <v>143.94499999999999</v>
+        <v>164.18199999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>10.25</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="B63" s="4">
-        <v>79.173000000000002</v>
+        <v>143.94499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>13.333333333333334</v>
+        <v>10.25</v>
       </c>
       <c r="B64" s="4">
-        <v>368.28800000000001</v>
+        <v>79.173000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>10.916666666666666</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="B65" s="4">
-        <v>101.911</v>
+        <v>368.28800000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>12.916666666666666</v>
+        <v>10.916666666666666</v>
       </c>
       <c r="B66" s="4">
-        <v>169.328</v>
+        <v>101.911</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>11.583333333333334</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="B67" s="4">
-        <v>93.180999999999997</v>
+        <v>169.328</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>14.583333333333334</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="B68" s="4">
-        <v>78.418000000000006</v>
+        <v>93.180999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>18.583333333333332</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="B69" s="4">
-        <v>363.75799999999998</v>
+        <v>78.418000000000006</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>9.9166666666666661</v>
+        <v>18.583333333333332</v>
       </c>
       <c r="B70" s="4">
-        <v>112.51300000000001</v>
+        <v>363.75799999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>10.666666666666666</v>
+        <v>9.9166666666666661</v>
       </c>
       <c r="B71" s="4">
-        <v>121.758</v>
+        <v>112.51300000000001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>13.5</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="B72" s="4">
-        <v>77.126999999999995</v>
+        <v>121.758</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>11.416666666666666</v>
+        <v>13.5</v>
       </c>
       <c r="B73" s="4">
-        <v>56.524000000000001</v>
+        <v>77.126999999999995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,742 +1038,750 @@
         <v>11.416666666666666</v>
       </c>
       <c r="B74" s="4">
-        <v>235.483</v>
+        <v>56.524000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>10.083333333333334</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="B75" s="4">
-        <v>102.16200000000001</v>
+        <v>235.483</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>27.166666666666668</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="B76" s="4">
-        <v>76.64</v>
+        <v>102.16200000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>10.5</v>
+        <v>27.166666666666668</v>
       </c>
       <c r="B77" s="4">
-        <v>158.08099999999999</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>35.75</v>
+        <v>10.5</v>
       </c>
       <c r="B78" s="4">
-        <v>132.30099999999999</v>
+        <v>158.08099999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>8.0833333333333339</v>
+        <v>35.75</v>
       </c>
       <c r="B79" s="4">
-        <v>129.06200000000001</v>
+        <v>132.30099999999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>9.6666666666666661</v>
+        <v>8.0833333333333339</v>
       </c>
       <c r="B80" s="4">
-        <v>140.99600000000001</v>
+        <v>129.06200000000001</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>8.0833333333333339</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="B81" s="4">
-        <v>93.94</v>
+        <v>140.99600000000001</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>13.916666666666666</v>
+        <v>8.0833333333333339</v>
       </c>
       <c r="B82" s="4">
-        <v>156.94399999999999</v>
+        <v>93.94</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>12.25</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="B83" s="4">
-        <v>66.869</v>
+        <v>156.94399999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>6.916666666666667</v>
+        <v>12.25</v>
       </c>
       <c r="B84" s="4">
-        <v>79.227999999999994</v>
+        <v>66.869</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>14.916666666666666</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="B85" s="4">
-        <v>89.802000000000007</v>
+        <v>79.227999999999994</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>10.333333333333334</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="B86" s="4">
-        <v>162.27699999999999</v>
+        <v>89.802000000000007</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>12.666666666666666</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="B87" s="4">
-        <v>75.593999999999994</v>
+        <v>162.27699999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>16.166666666666668</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="B88" s="4">
-        <v>108.816</v>
+        <v>75.593999999999994</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>10.583333333333334</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="B89" s="4">
-        <v>67.055999999999997</v>
+        <v>108.816</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>9.3333333333333339</v>
+        <v>10.583333333333334</v>
       </c>
       <c r="B90" s="4">
-        <v>58.942999999999998</v>
+        <v>67.055999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>11.75</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="B91" s="4">
-        <v>106.02500000000001</v>
+        <v>58.942999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="B92" s="4">
-        <v>90.051000000000002</v>
+        <v>106.02500000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>23.583333333333332</v>
+        <v>10.25</v>
       </c>
       <c r="B93" s="4">
-        <v>275.47699999999998</v>
+        <v>90.051000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>11.833333333333334</v>
+        <v>23.583333333333332</v>
       </c>
       <c r="B94" s="4">
-        <v>253.20599999999999</v>
+        <v>275.47699999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>11.5</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="B95" s="4">
-        <v>236.791</v>
+        <v>253.20599999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>11.666666666666666</v>
+        <v>11.5</v>
       </c>
       <c r="B96" s="4">
-        <v>115.28700000000001</v>
+        <v>236.791</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>11.5</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="B97" s="4">
-        <v>119.714</v>
+        <v>115.28700000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>14.916666666666666</v>
+        <v>11.5</v>
       </c>
       <c r="B98" s="4">
-        <v>216.90899999999999</v>
+        <v>119.714</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>13</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="B99" s="4">
-        <v>97.677000000000007</v>
+        <v>216.90899999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
+        <v>13</v>
+      </c>
+      <c r="B100" s="4">
+        <v>97.677000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>10.416666666666666</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B101" s="4">
         <v>133.39500000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="B101" s="4">
-        <v>221.92699999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="B102" s="4">
+        <v>221.92699999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>10.4</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B103" s="4">
         <v>164.14699999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>10</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B104" s="4">
         <v>61.631999999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="B104" s="4">
-        <v>135.71700000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="B105" s="4">
-        <v>152.05099999999999</v>
+        <v>135.71700000000001</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>18.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="B106" s="4">
-        <v>189.09399999999999</v>
+        <v>152.05099999999999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>9.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B107" s="4">
-        <v>217.345</v>
+        <v>189.09399999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="B108" s="4">
-        <v>44.319000000000003</v>
+        <v>217.345</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>15.3</v>
+        <v>10.6</v>
       </c>
       <c r="B109" s="4">
-        <v>114.712</v>
+        <v>44.319000000000003</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>11.6</v>
+        <v>15.3</v>
       </c>
       <c r="B110" s="4">
-        <v>191.73400000000001</v>
+        <v>114.712</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="B111" s="4">
+        <v>191.73400000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>13.1</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B112" s="4">
         <v>154.34899999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>16</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B113" s="4">
         <v>170.68299999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="B113" s="4">
-        <v>67.102000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>27.4</v>
+        <v>11.8</v>
       </c>
       <c r="B114" s="4">
-        <v>205.28100000000001</v>
+        <v>67.102000000000004</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>14.8</v>
+        <v>27.4</v>
       </c>
       <c r="B115" s="4">
-        <v>44.503999999999998</v>
+        <v>205.28100000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="B116" s="4">
+        <v>44.503999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>12.3</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B117" s="4">
         <v>101.76900000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>13</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B118" s="4">
         <v>120.586</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>14.2</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B119" s="4">
         <v>166.03299999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>42</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B120" s="4">
         <v>175.34299999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>14.5</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B121" s="4">
         <v>211.101</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>10</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B122" s="4">
         <v>81.477999999999994</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>12.2</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B123" s="4">
         <v>101.123</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>9</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B124" s="4">
         <v>87.869</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="B124" s="4">
-        <v>117.46299999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>9.8000000000000007</v>
+        <v>11.9</v>
       </c>
       <c r="B125" s="4">
-        <v>142.828</v>
+        <v>117.46299999999999</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B126" s="4">
+        <v>142.828</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>13.3</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B127" s="4">
         <v>201.71700000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>9</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B128" s="4">
         <v>68.587999999999994</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="B128" s="4">
-        <v>121.133</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>12.4</v>
+        <v>11.7</v>
       </c>
       <c r="B129" s="4">
-        <v>255.55199999999999</v>
+        <v>121.133</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="B130" s="4">
+        <v>255.55199999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>13.9</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B131" s="4">
         <v>154.30699999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B132" s="4">
         <v>153.92500000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="B132" s="4">
-        <v>40.710999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="B133" s="4">
+        <v>40.710999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>12.1</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B134" s="4">
         <v>183.226</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
         <v>15</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B135" s="4">
         <v>91.944000000000003</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="B135" s="4">
-        <v>82.057000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="B136" s="4">
-        <v>49.899000000000001</v>
+        <v>82.057000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>10.1</v>
+        <v>12.8</v>
       </c>
       <c r="B137" s="4">
-        <v>287.53199999999998</v>
+        <v>49.899000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="B138" s="4">
-        <v>115.203</v>
+        <v>287.53199999999998</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="B139" s="4">
-        <v>67.051000000000002</v>
+        <v>115.203</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>12.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B140" s="4">
-        <v>91.481999999999999</v>
+        <v>67.051000000000002</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>22.2</v>
+        <v>12.3</v>
       </c>
       <c r="B141" s="4">
-        <v>109.351</v>
+        <v>91.481999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="B142" s="4">
+        <v>109.351</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>15.7</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B143" s="4">
         <v>111.41200000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>13</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B144" s="4">
         <v>184.33099999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="B144" s="4">
-        <v>88.971999999999994</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="B145" s="4">
-        <v>108.501</v>
+        <v>88.971999999999994</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="B146" s="4">
+        <v>108.501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>7.3</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B147" s="4">
         <v>78.59</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>20</v>
-      </c>
-      <c r="B147" s="4">
-        <v>192.07599999999999</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
+        <v>20</v>
+      </c>
+      <c r="B148" s="4">
+        <v>192.07599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>15</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B149" s="4">
         <v>364.03</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>12.2</v>
-      </c>
-      <c r="B149" s="4">
-        <v>113.82899999999999</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="B150" s="4">
-        <v>101.092</v>
+        <v>113.82899999999999</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>10.8</v>
+        <v>12.7</v>
       </c>
       <c r="B151" s="4">
-        <v>147.048</v>
+        <v>101.092</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="B152" s="4">
-        <v>175.19800000000001</v>
+        <v>147.048</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="B153" s="4">
+        <v>175.19800000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>12.8</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B154" s="4">
         <v>249.98699999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>13</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B155" s="4">
         <v>174.95400000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="B155" s="4">
-        <v>183.78399999999999</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="B156" s="4">
+        <v>183.78399999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>12.2</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B157" s="4">
         <v>88.581000000000003</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>22</v>
-      </c>
-      <c r="B157" s="4">
-        <v>140.53800000000001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
+        <v>22</v>
+      </c>
+      <c r="B158" s="4">
+        <v>140.53800000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>14</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B159" s="4">
         <v>184.179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="B159" s="4">
-        <v>243.00700000000001</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>11.4</v>
+        <v>15.2</v>
       </c>
       <c r="B160" s="4">
-        <v>81.242999999999995</v>
+        <v>243.00700000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="B161" s="4">
-        <v>92.100999999999999</v>
+        <v>81.242999999999995</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="B162" s="4">
+        <v>92.100999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>12.3</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B163" s="4">
         <v>137.98599999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>12</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B164" s="4">
         <v>195.12899999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="B164" s="4">
-        <v>237.072</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="B165" s="4">
+        <v>237.072</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>11.2</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B166" s="4">
         <v>68.647000000000006</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>15.3</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B167" s="4">
         <v>122.012</v>
       </c>
     </row>
